--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244268.1964273218</v>
+        <v>-246969.4130787783</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>32.55518202532693</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.68673391648531</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>99.48151766268437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5.603231215200573</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.6799710222932</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>137.4263167618146</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>129.0175377222071</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154305</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863674</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.87627009537829</v>
+        <v>118.0956355877659</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>36.27346476951723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713891</v>
+        <v>4.360182258713678</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>123.8374049143727</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643607</v>
+        <v>1.905236112643408</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>172.4994477814906</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>69.35240600436637</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.5723661040397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.3496295092329</v>
+        <v>108.3696038659187</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>143.7762815267411</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>19.11273671215312</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>61.34091479889529</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.4350177948556</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>146.6281161973741</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8697920431062</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.8000472740345</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.8728463917176</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>14.9215867835844</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>219.8787494883751</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>142.5631989720289</v>
+        <v>99.65140663107593</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>207.9255310585129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>41.69085152457916</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>46.15319674220952</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>215.3025979624045</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703276</v>
+        <v>98.20549876776191</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673021</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223554</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428196</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.33989744909044</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4845493424988</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="C3" t="n">
-        <v>170.0315200613718</v>
+        <v>534.9571139601751</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>386.0227042989238</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>226.7852492934683</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>226.7852492934683</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>89.38856284253555</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="V3" t="n">
-        <v>652.7312295849117</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="W3" t="n">
-        <v>652.7312295849117</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="X3" t="n">
-        <v>552.2448481074528</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.4845493424988</v>
+        <v>709.4101432413021</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321.9084309645528</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="C4" t="n">
-        <v>321.9084309645528</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9084309645528</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>588.2860875317308</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>588.2860875317308</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V4" t="n">
-        <v>588.2860875317308</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="W4" t="n">
-        <v>321.9084309645528</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="X4" t="n">
-        <v>321.9084309645528</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="Y4" t="n">
-        <v>321.9084309645528</v>
+        <v>342.216248053331</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.1235601599897</v>
+        <v>877.7164538816071</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1235601599897</v>
+        <v>508.7539369411953</v>
       </c>
       <c r="D5" t="n">
-        <v>561.1235601599897</v>
+        <v>150.4882383344448</v>
       </c>
       <c r="E5" t="n">
-        <v>430.8028149860431</v>
+        <v>150.4882383344448</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631518</v>
+        <v>143.5427375852413</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523445</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523445</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275124</v>
+        <v>93.76641159275164</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245569</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.1499114825647</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748849</v>
+        <v>729.4041931748883</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202383</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798417</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189415</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261722</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850797</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="U5" t="n">
-        <v>1322.152679850797</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.152679850797</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="W5" t="n">
-        <v>1322.152679850797</v>
+        <v>1389.996673518257</v>
       </c>
       <c r="X5" t="n">
-        <v>948.6869215897175</v>
+        <v>1016.530915257177</v>
       </c>
       <c r="Y5" t="n">
-        <v>561.1235601599897</v>
+        <v>1016.530915257177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.224339148144</v>
+        <v>727.884773770023</v>
       </c>
       <c r="C6" t="n">
-        <v>397.224339148144</v>
+        <v>727.884773770023</v>
       </c>
       <c r="D6" t="n">
-        <v>373.1068946073578</v>
+        <v>608.5962529742999</v>
       </c>
       <c r="E6" t="n">
-        <v>213.8694396019023</v>
+        <v>449.3587979688443</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33488162878733</v>
+        <v>302.8242399957293</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878733</v>
+        <v>165.6519402584159</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878733</v>
+        <v>67.33488162878734</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="J6" t="n">
-        <v>49.4420610756341</v>
+        <v>70.78704471034301</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169444</v>
+        <v>180.9835516516538</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482962</v>
+        <v>375.4788954830063</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190418</v>
+        <v>621.8026561537529</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912639</v>
+        <v>889.054518725976</v>
       </c>
       <c r="O6" t="n">
-        <v>1089.972982256782</v>
+        <v>1111.317965891495</v>
       </c>
       <c r="P6" t="n">
-        <v>1469.823832794058</v>
+        <v>1270.370911090184</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757971</v>
+        <v>1530.346686757978</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757971</v>
+        <v>1385.878273152073</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757971</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078575</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.073494846832</v>
+        <v>1189.973630703757</v>
       </c>
       <c r="W6" t="n">
-        <v>812.8361381186307</v>
+        <v>935.7362739755558</v>
       </c>
       <c r="X6" t="n">
-        <v>604.9846379130979</v>
+        <v>727.884773770023</v>
       </c>
       <c r="Y6" t="n">
-        <v>397.224339148144</v>
+        <v>727.884773770023</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="C7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="D7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="E7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="F7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="G7" t="n">
-        <v>32.61949914709668</v>
+        <v>302.5955175409329</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709668</v>
+        <v>150.3466870274377</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709668</v>
+        <v>32.61949914709662</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523445</v>
+        <v>30.69501822523459</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223266</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830396</v>
       </c>
       <c r="M7" t="n">
-        <v>615.068857638815</v>
+        <v>615.0688576388163</v>
       </c>
       <c r="N7" t="n">
-        <v>854.728564797482</v>
+        <v>854.7285647974838</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402743</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.958670049233</v>
+        <v>910.3578444371327</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.958670049233</v>
+        <v>910.3578444371327</v>
       </c>
       <c r="U7" t="n">
-        <v>770.8187992256047</v>
+        <v>910.3578444371327</v>
       </c>
       <c r="V7" t="n">
-        <v>770.8187992256047</v>
+        <v>655.6733562312459</v>
       </c>
       <c r="W7" t="n">
-        <v>481.4016291886441</v>
+        <v>655.6733562312459</v>
       </c>
       <c r="X7" t="n">
-        <v>253.4120782906268</v>
+        <v>427.6838053332285</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.61949914709668</v>
+        <v>427.6838053332285</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1591.095540256642</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>1222.13302331623</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>1222.13302331623</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>836.3447707179862</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>425.3588659283786</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y8" t="n">
-        <v>1653.287154902436</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.8280128167644</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888575</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765217</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>1381.76163186861</v>
+        <v>1016.455992655101</v>
       </c>
       <c r="Y10" t="n">
-        <v>1160.96905272508</v>
+        <v>795.6634135115711</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1938.142929854342</v>
+        <v>2120.415768346434</v>
       </c>
       <c r="C11" t="n">
-        <v>1569.180412913931</v>
+        <v>1751.453251406022</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.91471430718</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>825.1264617089359</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>414.1405569193284</v>
+        <v>809.4505268194421</v>
       </c>
       <c r="G11" t="n">
         <v>394.8347622605878</v>
@@ -5042,49 +5042,49 @@
         <v>304.4060796706889</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656954</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.60089048404</v>
       </c>
       <c r="O11" t="n">
         <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479992</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464058</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796033</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796033</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377398</v>
+        <v>3876.883295796033</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498926</v>
+        <v>3623.389353917561</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155356</v>
+        <v>3623.389353917561</v>
       </c>
       <c r="W11" t="n">
-        <v>3088.347860155356</v>
+        <v>3270.620698647447</v>
       </c>
       <c r="X11" t="n">
-        <v>2714.882101894276</v>
+        <v>2897.154940386367</v>
       </c>
       <c r="Y11" t="n">
-        <v>2324.742769918464</v>
+        <v>2507.015608410555</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390847</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592067</v>
@@ -5121,22 +5121,22 @@
         <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046653</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626167</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
         <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1546.994364450734</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2014.935408783257</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2371.16628502803</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.452541682644</v>
+        <v>1003.287366026812</v>
       </c>
       <c r="C13" t="n">
-        <v>925.5163587547372</v>
+        <v>834.3511830989049</v>
       </c>
       <c r="D13" t="n">
-        <v>775.3997193424013</v>
+        <v>684.2345436865692</v>
       </c>
       <c r="E13" t="n">
-        <v>627.4866257600081</v>
+        <v>536.3214501041761</v>
       </c>
       <c r="F13" t="n">
-        <v>480.5966782620977</v>
+        <v>389.4315026062657</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>221.9335194174539</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717527</v>
+        <v>77.53766591592067</v>
       </c>
       <c r="I13" t="n">
         <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5212,7 +5212,7 @@
         <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
@@ -5227,22 +5227,22 @@
         <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742807</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692258</v>
+        <v>1627.379943126698</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.310755693374</v>
+        <v>1627.379943126698</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.893585656414</v>
+        <v>1627.379943126698</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.893585656414</v>
+        <v>1405.728410000582</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.101006512884</v>
+        <v>1184.935830857052</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5358,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327647</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>615.6449305525889</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402531</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>317.61519755786</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>317.61519755786</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2225.50344847599</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630045</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>803.270770777032</v>
       </c>
       <c r="C19" t="n">
-        <v>390.823249958218</v>
+        <v>634.3345878491251</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>984.9192356072717</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290468</v>
+        <v>734.6461798836024</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>565.7099969556955</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1822.407037300151</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1567.722549094264</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138421</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109956</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
         <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.457849225631</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.773361019744</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.356190982783</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1061.366640084765</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412353</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954784</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.5972070257181</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135295</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856226</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>550.6376870732869</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908938</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400713</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121644</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121644</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121644</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703111</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311993</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032924</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>482.6390612909567</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703108</v>
+        <v>983.340348461439</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7175,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,13 +7187,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,10 +7360,10 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7372,10 +7372,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400716</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121646</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121646</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121646</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121646</v>
+        <v>261.8464821474261</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270446</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138414</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703113</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958741</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679674</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>316.6799057705116</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127097</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261139</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.4393943863702</v>
+        <v>34.43939438636977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>21.56058953000854</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106954</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.609690055160542</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>210.9067600939419</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.3568702011128</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7967285249327</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>6.27463759418157</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>20.61870490125374</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>28.15649395853839</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>45.44677382459331</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>64.74262662649475</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.6938862346279</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229274</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.30572490086902</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6212754172152</v>
+        <v>186.5330677581682</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>78.25894333073127</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>125.5559695740487</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.8730892594351</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>70.88187642683967</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194126</v>
+        <v>67.31863952450693</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194236</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.4693302300333</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194193</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694750896</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1120805.56594398</v>
+        <v>1120805.565943981</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1120805.56594398</v>
+        <v>1120805.565943981</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>307890.6636991061</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991062</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991063</v>
-      </c>
       <c r="E2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028985</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
@@ -26332,25 +26332,25 @@
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="J2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837525</v>
       </c>
       <c r="P2" t="n">
         <v>302679.9748837525</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657064</v>
+        <v>132804.2190657084</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929383</v>
+        <v>265413.0723929362</v>
       </c>
       <c r="E3" t="n">
         <v>313577.1573545768</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417409</v>
+        <v>30877.42926417455</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204958</v>
+        <v>65018.34502049531</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273061</v>
+        <v>81897.40371273058</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320238</v>
+        <v>49839.57413202388</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382061</v>
+        <v>216477.7990382055</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26433,13 +26433,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680583</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="I4" t="n">
-        <v>11776.97621680586</v>
-      </c>
       <c r="J4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26448,16 +26448,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.6503866749</v>
+        <v>72593.65038667504</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738561</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-687367.1853595307</v>
       </c>
       <c r="C6" t="n">
-        <v>-113985.0047914811</v>
+        <v>-113985.0047914827</v>
       </c>
       <c r="D6" t="n">
-        <v>-192003.0016862568</v>
+        <v>-192003.0016862548</v>
       </c>
       <c r="E6" t="n">
-        <v>-135665.2334762233</v>
+        <v>-135886.3647901979</v>
       </c>
       <c r="F6" t="n">
-        <v>472.2000726097613</v>
+        <v>437.4621471741553</v>
       </c>
       <c r="G6" t="n">
-        <v>189780.4688430395</v>
+        <v>189745.7309176035</v>
       </c>
       <c r="H6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176034</v>
       </c>
       <c r="I6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176038</v>
       </c>
       <c r="J6" t="n">
-        <v>120781.3144239251</v>
+        <v>120746.5764984895</v>
       </c>
       <c r="K6" t="n">
-        <v>158903.0395788652</v>
+        <v>158868.3016534291</v>
       </c>
       <c r="L6" t="n">
-        <v>124762.1238225435</v>
+        <v>124727.3858971084</v>
       </c>
       <c r="M6" t="n">
-        <v>107883.0651303087</v>
+        <v>107848.3272048731</v>
       </c>
       <c r="N6" t="n">
-        <v>139940.8947110156</v>
+        <v>139906.1567855799</v>
       </c>
       <c r="O6" t="n">
-        <v>189780.4688430392</v>
+        <v>189745.7309176038</v>
       </c>
       <c r="P6" t="n">
-        <v>189780.4688430395</v>
+        <v>189745.7309176039</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695744</v>
+        <v>717.331951169576</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154305</v>
+        <v>383.6877278154324</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490084</v>
+        <v>969.2208239490083</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.276937400096</v>
+        <v>103.2769374000976</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479649</v>
+        <v>216.7329409479631</v>
       </c>
       <c r="E3" t="n">
         <v>268.1763450974108</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846083</v>
+        <v>256.8971042846064</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489695</v>
       </c>
       <c r="F4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506401</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846083</v>
+        <v>256.8971042846064</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489693</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846083</v>
+        <v>256.8971042846064</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506401</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,13 +27430,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>295.197076444808</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>75.79258635472443</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>106.2914675407931</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>174.2287489667367</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>93.53437485727267</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>245.307524901666</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>252.9128323500547</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628089</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863698</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623038</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>123.5687954692605</v>
+        <v>29.34942997687287</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>42.8600250239442</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>28.97411172446405</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.1952967685876</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.66557255201388</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.482350672704371</v>
+        <v>71.46237631601859</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28068,13 +28068,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365121</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579062</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817692</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756932</v>
+        <v>244.7543826756937</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023588</v>
+        <v>366.8233736023596</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952477</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791137</v>
+        <v>506.3606591791148</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284035</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974779</v>
+        <v>485.878849397479</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562764</v>
+        <v>414.6863567562773</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868886</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277624</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020791</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.2306997229892102</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270409</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189773</v>
+        <v>53.12316808189785</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453795</v>
+        <v>249.15104194538</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438659</v>
+        <v>335.0143230438666</v>
       </c>
       <c r="M6" t="n">
-        <v>390.945913387418</v>
+        <v>390.9459133874188</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189113</v>
+        <v>401.2930884189121</v>
       </c>
       <c r="O6" t="n">
-        <v>367.104776934867</v>
+        <v>367.1047769348678</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190661</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.9549915739561</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392924</v>
+        <v>95.79765189392946</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.659441633992</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989044</v>
+        <v>6.219132670989057</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907944</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572053</v>
+        <v>38.90055892572062</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402917</v>
+        <v>91.45394400402937</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401177</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773278</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022538</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669598</v>
+        <v>182.8373307669602</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.317124626606</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565105</v>
+        <v>58.16268574565117</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5430385310176</v>
+        <v>22.54303853101765</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060653</v>
+        <v>5.526983886060665</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864674</v>
+        <v>0.07055724109864689</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193136</v>
@@ -31844,28 +31844,28 @@
         <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>472.5290573986191</v>
+        <v>282.4162185798883</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,10 +33032,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572285</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900688</v>
+        <v>63.70847814900742</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573783</v>
+        <v>146.733522557379</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252595</v>
+        <v>219.3104167252605</v>
       </c>
       <c r="M5" t="n">
-        <v>276.014425951841</v>
+        <v>276.0144259518421</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318125</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757912</v>
+        <v>255.7806379757922</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010069</v>
+        <v>183.4533610010078</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243845</v>
+        <v>89.10649401243913</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959561</v>
+        <v>40.49699644960447</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710205</v>
+        <v>111.309602971021</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639917</v>
+        <v>196.4599432639924</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653997</v>
+        <v>248.8118794654005</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>269.9513763355789</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904226</v>
+        <v>224.5085324904234</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154305</v>
+        <v>160.6595406047358</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.58290754309465</v>
+        <v>267.0505052237836</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142345</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148612</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391684</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814824</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809999</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609593</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491135</v>
+        <v>22.15508137491159</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>341.1873453152858</v>
+        <v>151.074506496555</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
